--- a/fonts_tcc.xlsx
+++ b/fonts_tcc.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27720"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20410"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B07E31E7-AC73-4B7C-BE41-FE0F4588E397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54DC3BA3-DE71-431D-9E8E-80C74BA31735}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,23 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Artigo</t>
   </si>
@@ -60,22 +54,34 @@
     <t>https://www.researchgate.net/publication/372358773_Market-Based_Analysis_Apriori_approach_to_analyze_purchase_patterns</t>
   </si>
   <si>
-    <t xml:space="preserve">Bharadhwaj Reddy Lekireddy
-Naga Sai Ram Reddybathina
-G Michael
-Sachi Mohanty
+    <t>Query by Example of Speaker Audio Signals using Power Spectrum and MFCCs</t>
+  </si>
+  <si>
+    <t>https://www.researchgate.net/publication/320856220_Query_by_Example_of_Speaker_Audio_Signals_using_Power_Spectrum_and_MFCCs</t>
+  </si>
+  <si>
+    <t>Pafan Doungpaisan
+A. Mingkhwan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bharadhwaj Reddy Lekireddy,
+Naga Sai Ram Reddybathina,
+G Michael,
+Sachi Mohanty,
 KIIT University
 </t>
   </si>
   <si>
-    <t>Query by Example of Speaker Audio Signals using Power Spectrum and MFCCs</t>
-  </si>
-  <si>
-    <t>https://www.researchgate.net/publication/320856220_Query_by_Example_of_Speaker_Audio_Signals_using_Power_Spectrum_and_MFCCs</t>
-  </si>
-  <si>
-    <t>Pafan Doungpaisan
-A. Mingkhwan</t>
+    <t>https://www.youtube.com/watch?v=FTb3Nq_MaOs</t>
+  </si>
+  <si>
+    <t>Utilizando "Machine Learning" para prever gêneros musicais</t>
+  </si>
+  <si>
+    <t>Ada</t>
+  </si>
+  <si>
+    <t>Algortimo para a classificação de gênero musical</t>
   </si>
 </sst>
 </file>
@@ -174,7 +180,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
@@ -219,8 +225,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2D93FED1-A55A-4123-A37D-7790DD1EB4AC}" name="Table1" displayName="Table1" ref="B2:E5" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="0" tableBorderDxfId="1">
-  <autoFilter ref="B2:E5" xr:uid="{2D93FED1-A55A-4123-A37D-7790DD1EB4AC}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2D93FED1-A55A-4123-A37D-7790DD1EB4AC}" name="Table1" displayName="Table1" ref="B2:E6" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="0" tableBorderDxfId="1">
+  <autoFilter ref="B2:E6" xr:uid="{2D93FED1-A55A-4123-A37D-7790DD1EB4AC}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{F221DF0A-6276-4B28-AAED-C99306080349}" name="Artigo"/>
     <tableColumn id="2" xr3:uid="{8A0705EB-1C0E-47A3-A723-9D289ABAB4EF}" name="Fonte"/>
@@ -548,17 +554,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:E5"/>
+  <dimension ref="B2:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="42.85546875" customWidth="1"/>
-    <col min="3" max="4" width="30.7109375" customWidth="1"/>
-    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="2" max="2" width="67.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="118.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="88.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5">
@@ -587,7 +594,7 @@
       </c>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="2:5">
+    <row r="4" spans="2:5" s="3" customFormat="1">
       <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
@@ -595,21 +602,34 @@
         <v>8</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="3"/>
+        <v>12</v>
+      </c>
     </row>
     <row r="5" spans="2:5">
       <c r="B5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -618,8 +638,9 @@
     <hyperlink ref="C5" r:id="rId3" xr:uid="{B1C0CA69-2858-407D-8AAF-3F798F2EAD4D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
   <tableParts count="1">
-    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>